--- a/inference/pofma_predictions.xlsx
+++ b/inference/pofma_predictions.xlsx
@@ -514,13 +514,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E2" t="n">
         <v>1</v>
@@ -701,10 +701,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>1</v>
@@ -782,7 +782,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -877,7 +877,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -1124,7 +1124,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C10" t="n">
         <v>1</v>
@@ -1176,7 +1176,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C11" t="n">
         <v>1</v>
@@ -1493,10 +1493,10 @@
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
@@ -1528,13 +1528,13 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D16" t="n">
         <v>1</v>
       </c>
       <c r="E16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -1569,10 +1569,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D17" t="n">
         <v>1</v>
@@ -1629,7 +1629,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
         <v>1</v>
@@ -1638,7 +1638,7 @@
         <v>1</v>
       </c>
       <c r="E18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
         <v>0</v>
@@ -1889,13 +1889,13 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2083,13 +2083,13 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2150,7 +2150,7 @@
         <v>1</v>
       </c>
       <c r="E26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
@@ -2237,10 +2237,10 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D27" t="n">
         <v>1</v>
@@ -2389,7 +2389,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -2516,7 +2516,7 @@
         <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
         <v>0</v>
@@ -2557,10 +2557,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D31" t="n">
         <v>1</v>
@@ -2608,7 +2608,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C32" t="n">
         <v>1</v>
@@ -2617,7 +2617,7 @@
         <v>1</v>
       </c>
       <c r="E32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
@@ -3016,13 +3016,13 @@
         <v>1</v>
       </c>
       <c r="C38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
         <v>1</v>
       </c>
       <c r="E38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
@@ -3059,13 +3059,13 @@
         <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
         <v>0</v>
@@ -3293,10 +3293,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>1</v>
@@ -3305,10 +3305,10 @@
         <v>1</v>
       </c>
       <c r="F43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3406,10 +3406,10 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D45" t="n">
         <v>1</v>
@@ -3421,7 +3421,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -3517,7 +3517,7 @@
         <v>0</v>
       </c>
       <c r="C47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D47" t="n">
         <v>1</v>
@@ -3529,7 +3529,7 @@
         <v>0</v>
       </c>
       <c r="G47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48">
@@ -3571,13 +3571,13 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E48" t="n">
         <v>0</v>
@@ -3586,7 +3586,7 @@
         <v>0</v>
       </c>
       <c r="G48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49">
@@ -3705,7 +3705,7 @@
         <v>1</v>
       </c>
       <c r="E50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F50" t="n">
         <v>0</v>
@@ -3974,13 +3974,13 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E54" t="n">
         <v>1</v>
@@ -4073,13 +4073,13 @@
         <v>0</v>
       </c>
       <c r="C55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D55" t="n">
         <v>1</v>
       </c>
       <c r="E55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F55" t="n">
         <v>0</v>
@@ -4134,7 +4134,7 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C56" t="n">
         <v>1</v>
@@ -4216,10 +4216,10 @@
         <v>0</v>
       </c>
       <c r="C57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E57" t="n">
         <v>0</v>
@@ -4228,7 +4228,7 @@
         <v>0</v>
       </c>
       <c r="G57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58">
@@ -4305,13 +4305,13 @@
         <v>1</v>
       </c>
       <c r="E58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F58" t="n">
         <v>0</v>
       </c>
       <c r="G58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59">
@@ -4345,13 +4345,13 @@
         </is>
       </c>
       <c r="B59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E59" t="n">
         <v>1</v>
@@ -4360,7 +4360,7 @@
         <v>0</v>
       </c>
       <c r="G59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60">
@@ -4504,7 +4504,7 @@
         </is>
       </c>
       <c r="B61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C61" t="n">
         <v>1</v>
@@ -4513,7 +4513,7 @@
         <v>1</v>
       </c>
       <c r="E61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F61" t="n">
         <v>0</v>
@@ -4689,13 +4689,13 @@
         <v>0</v>
       </c>
       <c r="C63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D63" t="n">
         <v>1</v>
       </c>
       <c r="E63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F63" t="n">
         <v>0</v>
@@ -4747,10 +4747,10 @@
         <v>0</v>
       </c>
       <c r="D64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F64" t="n">
         <v>0</v>
@@ -4812,7 +4812,7 @@
         </is>
       </c>
       <c r="B65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C65" t="n">
         <v>1</v>
@@ -4919,7 +4919,7 @@
         </is>
       </c>
       <c r="B66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C66" t="n">
         <v>0</v>
@@ -5261,7 +5261,7 @@
         </is>
       </c>
       <c r="B71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C71" t="n">
         <v>1</v>
@@ -5270,7 +5270,7 @@
         <v>1</v>
       </c>
       <c r="E71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F71" t="n">
         <v>0</v>
@@ -5529,13 +5529,13 @@
         </is>
       </c>
       <c r="B74" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C74" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D74" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E74" t="n">
         <v>0</v>
@@ -5544,7 +5544,7 @@
         <v>0</v>
       </c>
       <c r="G74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75">
@@ -5606,10 +5606,10 @@
         <v>1</v>
       </c>
       <c r="C75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E75" t="n">
         <v>0</v>
@@ -5694,16 +5694,16 @@
         </is>
       </c>
       <c r="B76" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C76" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D76" t="n">
         <v>1</v>
       </c>
       <c r="E76" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F76" t="n">
         <v>0</v>
@@ -5753,7 +5753,7 @@
         </is>
       </c>
       <c r="B77" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C77" t="n">
         <v>1</v>
@@ -5966,10 +5966,10 @@
         </is>
       </c>
       <c r="B79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D79" t="n">
         <v>1</v>
@@ -6014,10 +6014,10 @@
         <v>0</v>
       </c>
       <c r="D80" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E80" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F80" t="n">
         <v>0</v>
@@ -6281,7 +6281,7 @@
         <v>0</v>
       </c>
       <c r="D84" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E84" t="n">
         <v>1</v>
@@ -6408,7 +6408,7 @@
         <v>0</v>
       </c>
       <c r="D86" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E86" t="n">
         <v>1</v>
